--- a/qwaco_sale/templates/sale_list_report.xlsx
+++ b/qwaco_sale/templates/sale_list_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Odoo16_namdinh\addons-16\qwaco_sale\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6EAF297-D816-44CE-95E0-D98756637F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC51AA27-1B74-4610-B997-7FAFA580B821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7FEF7696-860B-4F31-A2BB-2836238DAFB2}"/>
   </bookViews>
@@ -138,9 +138,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -218,13 +218,6 @@
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-      <charset val="163"/>
     </font>
     <font>
       <sz val="9"/>
@@ -317,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -332,7 +325,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -367,9 +360,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,10 +728,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -903,27 +893,27 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1204,6 +1194,358 @@
     <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="184" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="186" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="187" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="188" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="189" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="191" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="192" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="193" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="194" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="195" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="197" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="198" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="200" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="201" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="202" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="203" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="204" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="205" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="207" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="209" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="210" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="211" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="212" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="214" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="215" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="216" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="218" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="219" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="220" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="221" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="222" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="223" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="224" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="225" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="227" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="228" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="229" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="230" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="231" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="232" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="233" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="234" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="236" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="237" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="238" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="239" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="240" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="241" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="242" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="243" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="245" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="246" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="247" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="248" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="249" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="250" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="251" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="252" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="254" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="255" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="256" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="257" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="258" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="259" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="260" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="261" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="262" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="263" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="264" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="265" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="266" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="267" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="268" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="269" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="270" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="271" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="272" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="273" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="274" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="275" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="276" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="277" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="278" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="279" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="280" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="281" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="282" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="283" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="284" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="285" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="286" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="287" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="288" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="289" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="290" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="291" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="292" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="293" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="294" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="295" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="296" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="297" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="298" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="299" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="300" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="301" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="302" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="303" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="304" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="305" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="306" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="307" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="308" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="309" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="310" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="311" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="312" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="313" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="314" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="315" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="316" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="317" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="318" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="319" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="320" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="321" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="322" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="323" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="324" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="325" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="326" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="327" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="328" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="329" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="330" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="331" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="332" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="333" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="334" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="335" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="336" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="337" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="338" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="339" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="340" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="341" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="342" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="343" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="344" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="345" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="346" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="347" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="348" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="349" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="350" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="351" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="352" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="353" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="354" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="355" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="356" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="357" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="358" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="359" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="360" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="361" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="362" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="363" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="364" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="365" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="366" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="367" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="368" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="369" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="370" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="371" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="372" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="373" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="374" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="375" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="376" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="377" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="378" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="379" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="380" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="381" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="382" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="383" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="384" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="385" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="386" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="387" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="388" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="389" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="390" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="391" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="392" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="393" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/qwaco_sale/templates/sale_list_report.xlsx
+++ b/qwaco_sale/templates/sale_list_report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Odoo16_namdinh\addons-16\qwaco_sale\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC51AA27-1B74-4610-B997-7FAFA580B821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C82C675-5918-4CF7-870A-9578FFFC7DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7FEF7696-860B-4F31-A2BB-2836238DAFB2}"/>
   </bookViews>
@@ -24,40 +24,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Acer</author>
-  </authors>
-  <commentList>
-    <comment ref="U3" authorId="0" shapeId="0" xr:uid="{84860E52-51B7-42DC-BDA1-7B607D888331}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Acer:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
@@ -140,7 +106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -217,19 +183,6 @@
       <i/>
       <sz val="16"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -724,14 +677,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB734D9-A23C-48A2-A27D-A1B55EFEFAE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB734D9-A23C-48A2-A27D-A1B55EFEFAE3}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1550,6 +1503,5 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>